--- a/SuiviProjet L3.xlsx
+++ b/SuiviProjet L3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8340" tabRatio="340" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8340" tabRatio="340"/>
   </bookViews>
   <sheets>
     <sheet name="JournalDeBord" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t>s4</t>
   </si>
@@ -222,13 +222,31 @@
     <t xml:space="preserve">Ecriture des fichiers-paquetages </t>
   </si>
   <si>
-    <t>Ecriture des fichiers d'etape 1, tests</t>
-  </si>
-  <si>
     <t>Ecriture d'un fichier-main avec des opions</t>
   </si>
   <si>
-    <t>Ecriture d'un maquet, ajout l'option pour l'etape 1, tests</t>
+    <t>Ecriture des fichiers d'etapes 1,2,3,4, tests</t>
+  </si>
+  <si>
+    <t>Fusion des fichier et formatage d'un fichier paq unique pour phase 1</t>
+  </si>
+  <si>
+    <t>Ecriture de, ajout d'option pour l'etape 2, tests</t>
+  </si>
+  <si>
+    <t>Ecriture d'un maquet, ajout d'option pour l'etape 1, tests</t>
+  </si>
+  <si>
+    <t>Ajout des options pour les etapes 3,4, tests</t>
+  </si>
+  <si>
+    <t>Ecriture des fichiers d'etapes 4,5,6,7, tests</t>
+  </si>
+  <si>
+    <t>Ajout d'une option pour l'affichage en anglais et en francais, tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reecriture des fonctions et procedures </t>
   </si>
 </sst>
 </file>
@@ -472,14 +490,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -860,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -896,7 +914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -911,7 +929,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="18">
-        <f t="shared" ref="E2:F5" si="0">DATE(2017,1,3)</f>
+        <f t="shared" ref="E2:F4" si="0">DATE(2017,1,3)</f>
         <v>42738</v>
       </c>
       <c r="F2" s="18">
@@ -986,14 +1004,14 @@
         <v>65</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="18">
-        <f>DATE(2017,1,4)</f>
+        <f t="shared" ref="E5:F8" si="1">DATE(2017,1,4)</f>
         <v>42739</v>
       </c>
       <c r="F5" s="18">
-        <f>DATE(2017,1,4)</f>
+        <f t="shared" si="1"/>
         <v>42739</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -1009,17 +1027,17 @@
         <v>42739</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="18">
-        <f>DATE(2017,1,4)</f>
+        <f t="shared" si="1"/>
         <v>42739</v>
       </c>
       <c r="F6" s="18">
-        <f>DATE(2017,1,4)</f>
+        <f t="shared" si="1"/>
         <v>42739</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -1031,18 +1049,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <f>DATE(2017,1,4)</f>
-        <v>42739</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+        <f>DATE(2017,1,5)</f>
+        <v>42740</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="E7" s="18">
-        <f>DATE(2017,1,4)</f>
-        <v>42739</v>
+        <f>DATE(2017,1,5)</f>
+        <v>42740</v>
       </c>
       <c r="F7" s="18">
-        <f>DATE(2017,1,4)</f>
-        <v>42739</v>
+        <f>DATE(2017,1,5)</f>
+        <v>42740</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1050,69 +1075,156 @@
         <v>7</v>
       </c>
       <c r="B8" s="18">
-        <f>DATE(2017,1,4)</f>
-        <v>42739</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+        <f>DATE(2017,1,5)</f>
+        <v>42740</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="E8" s="18">
-        <f>DATE(2017,1,4)</f>
-        <v>42739</v>
+        <f>DATE(2017,1,5)</f>
+        <v>42740</v>
       </c>
       <c r="F8" s="18">
-        <f>DATE(2017,1,4)</f>
-        <v>42739</v>
+        <f>DATE(2017,1,5)</f>
+        <v>42740</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="18">
+        <f>DATE(2017,1,6)</f>
+        <v>42741</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="18">
+        <f>DATE(2017,1,6)</f>
+        <v>42741</v>
+      </c>
+      <c r="F9" s="18">
+        <f>DATE(2017,1,6)</f>
+        <v>42741</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="18">
+        <f>DATE(2017,1,6)</f>
+        <v>42741</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="18">
+        <f>DATE(2017,1,6)</f>
+        <v>42741</v>
+      </c>
+      <c r="F10" s="18">
+        <f>DATE(2017,1,6)</f>
+        <v>42741</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="18">
+        <f>DATE(2017,1,6)</f>
+        <v>42741</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="18">
+        <f>DATE(2017,1,6)</f>
+        <v>42741</v>
+      </c>
+      <c r="F11" s="18">
+        <f>DATE(2017,1,6)</f>
+        <v>42741</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="18">
+        <f>DATE(2017,1,7)</f>
+        <v>42742</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="18">
+        <f>DATE(2017,1,7)</f>
+        <v>42742</v>
+      </c>
+      <c r="F12" s="18">
+        <f>DATE(2017,1,7)</f>
+        <v>42742</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="B13" s="18">
+        <f>DATE(2017,1,8)</f>
+        <v>42743</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="18">
+        <f>DATE(2017,1,8)</f>
+        <v>42743</v>
+      </c>
+      <c r="F13" s="18">
+        <f>DATE(2017,1,8)</f>
+        <v>42743</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -1123,7 +1235,9 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
@@ -1134,6 +1248,9 @@
       <c r="D15" s="19"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
+      <c r="G15" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
@@ -1144,8 +1261,11 @@
       <c r="D16" s="19"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1153,15 +1273,21 @@
       <c r="C17" s="20"/>
       <c r="D17" s="19"/>
       <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="15"/>
       <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1171,7 +1297,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -1181,7 +1307,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -1191,7 +1317,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -1201,7 +1327,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -1209,7 +1335,7 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -1219,7 +1345,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -1229,7 +1355,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -1239,7 +1365,7 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -1249,7 +1375,7 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -1257,7 +1383,7 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -1265,7 +1391,7 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -1273,7 +1399,7 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -1281,7 +1407,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -1334,7 +1460,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1506,7 +1632,7 @@
   <dimension ref="A3:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1519,70 +1645,70 @@
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="24" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="26"/>
+      <c r="O3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25" t="s">
+      <c r="R3" s="26"/>
+      <c r="S3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="24" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="25" t="s">
+      <c r="V3" s="26"/>
+      <c r="W3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="24" t="s">
+      <c r="X3" s="24"/>
+      <c r="Y3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="25" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25" t="s">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25" t="s">
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25" t="s">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="25"/>
+      <c r="AH3" s="24"/>
     </row>
     <row r="4" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1599,18 +1725,18 @@
       <c r="H4" s="8"/>
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="2"/>
       <c r="N4" s="8"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="26"/>
+      <c r="R4" s="25"/>
       <c r="S4" s="2"/>
       <c r="T4" s="8"/>
       <c r="U4" s="2"/>
@@ -1619,10 +1745,10 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="8"/>
-      <c r="AA4" s="26" t="s">
+      <c r="AA4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="26"/>
+      <c r="AB4" s="25"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="2"/>
@@ -1645,14 +1771,14 @@
       <c r="H5" s="8"/>
       <c r="I5" s="2"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="2"/>
       <c r="N5" s="8"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
       <c r="S5" s="2"/>
       <c r="T5" s="8"/>
       <c r="U5" s="2"/>
@@ -1661,8 +1787,8 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="8"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="2"/>
@@ -1685,14 +1811,14 @@
       <c r="H6" s="6"/>
       <c r="I6" s="2"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="2"/>
       <c r="N6" s="8"/>
       <c r="O6" s="7"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="2"/>
       <c r="T6" s="8"/>
       <c r="U6" s="2"/>
@@ -1701,8 +1827,8 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="8"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="2"/>
@@ -1725,14 +1851,14 @@
       <c r="H7" s="8"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="2"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
       <c r="S7" s="2"/>
       <c r="T7" s="8"/>
       <c r="U7" s="2"/>
@@ -1741,8 +1867,8 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="2"/>
@@ -1765,14 +1891,14 @@
       <c r="H8" s="8"/>
       <c r="I8" s="2"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="5"/>
       <c r="N8" s="9"/>
       <c r="O8" s="10"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="2"/>
       <c r="T8" s="8"/>
       <c r="U8" s="2"/>
@@ -1781,8 +1907,8 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="2"/>
@@ -1805,14 +1931,14 @@
       <c r="H9" s="8"/>
       <c r="I9" s="2"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="2"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
       <c r="S9" s="5"/>
       <c r="T9" s="9"/>
       <c r="U9" s="10"/>
@@ -1821,8 +1947,8 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="2"/>
@@ -1845,14 +1971,14 @@
       <c r="H10" s="8"/>
       <c r="I10" s="2"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="2"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
       <c r="S10" s="2"/>
       <c r="T10" s="8"/>
       <c r="U10" s="2"/>
@@ -1861,8 +1987,8 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="2"/>
@@ -1885,14 +2011,14 @@
       <c r="H11" s="8"/>
       <c r="I11" s="2"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="2"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
       <c r="S11" s="2"/>
       <c r="T11" s="8"/>
       <c r="U11" s="2"/>
@@ -1901,8 +2027,8 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="8"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="2"/>
@@ -1925,14 +2051,14 @@
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="5"/>
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
       <c r="S12" s="5"/>
       <c r="T12" s="11"/>
       <c r="U12" s="9"/>
@@ -1941,8 +2067,8 @@
       <c r="X12" s="11"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="2"/>
@@ -1965,14 +2091,14 @@
       <c r="H13" s="8"/>
       <c r="I13" s="2"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="2"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
       <c r="S13" s="2"/>
       <c r="T13" s="8"/>
       <c r="U13" s="2"/>
@@ -1981,8 +2107,8 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="5"/>
@@ -2003,14 +2129,14 @@
       <c r="H14" s="8"/>
       <c r="I14" s="2"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="2"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
       <c r="S14" s="2"/>
       <c r="T14" s="8"/>
       <c r="U14" s="2"/>
@@ -2019,8 +2145,8 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="8"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="2"/>
@@ -2031,6 +2157,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -2045,11 +2176,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2061,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2075,70 +2201,70 @@
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="24" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="26"/>
+      <c r="O3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="25" t="s">
+      <c r="R3" s="26"/>
+      <c r="S3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="24" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="25" t="s">
+      <c r="V3" s="26"/>
+      <c r="W3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="24" t="s">
+      <c r="X3" s="24"/>
+      <c r="Y3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="25" t="s">
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25" t="s">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25" t="s">
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25" t="s">
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="25"/>
+      <c r="AH3" s="24"/>
     </row>
     <row r="4" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2585,6 +2711,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -2599,11 +2730,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
